--- a/config/Master_Test_Template_project1.xlsx
+++ b/config/Master_Test_Template_project1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\feb_data_automation_project\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\april_automation_framework\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A80429-A05D-4067-BDC5-DD39EAAAB8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8458E58-8813-498D-83CA-62DDB9508634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="93">
   <si>
     <t>csv</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>snowflake</t>
+  </si>
+  <si>
+    <t>contact_info_20240702.csv</t>
   </si>
 </sst>
 </file>
@@ -890,10 +893,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -992,7 +995,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -1010,10 +1013,10 @@
         <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>20</v>
@@ -1034,7 +1037,7 @@
         <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>27</v>
@@ -1057,7 +1060,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -1075,10 +1078,10 @@
         <v>31</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>20</v>
@@ -1099,7 +1102,7 @@
         <v>21</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>27</v>
@@ -1122,7 +1125,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -1140,10 +1143,10 @@
         <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>20</v>
@@ -1164,7 +1167,7 @@
         <v>21</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>27</v>
@@ -1187,7 +1190,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -1205,10 +1208,10 @@
         <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>20</v>
@@ -1229,7 +1232,7 @@
         <v>21</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>27</v>
@@ -1252,7 +1255,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -1270,10 +1273,10 @@
         <v>31</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>20</v>
@@ -1294,7 +1297,7 @@
         <v>21</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>27</v>
@@ -1317,7 +1320,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
@@ -1335,10 +1338,10 @@
         <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>20</v>
@@ -1359,7 +1362,7 @@
         <v>21</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>27</v>
@@ -1382,7 +1385,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
@@ -1400,10 +1403,10 @@
         <v>31</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="K8" s="22" t="s">
         <v>20</v>
@@ -1424,7 +1427,7 @@
         <v>21</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>27</v>
@@ -2659,7 +2662,7 @@
         <v>21</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>27</v>
@@ -2724,7 +2727,7 @@
         <v>21</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>27</v>
@@ -2789,7 +2792,7 @@
         <v>21</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>27</v>
@@ -2854,7 +2857,7 @@
         <v>21</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>27</v>
@@ -2919,7 +2922,7 @@
         <v>21</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R31" s="2" t="s">
         <v>27</v>
@@ -2984,7 +2987,7 @@
         <v>21</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R32" s="2" t="s">
         <v>27</v>
@@ -3049,7 +3052,7 @@
         <v>21</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>27</v>

--- a/config/Master_Test_Template_project1.xlsx
+++ b/config/Master_Test_Template_project1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\april_automation_framework\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2942F42-2465-4D09-BF7E-0E7E2928DDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9285DBA9-ECD5-46AD-BF8A-6FEA8690AEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="50">
   <si>
     <t>csv</t>
   </si>
@@ -158,6 +158,9 @@
     <t>data_compare</t>
   </si>
   <si>
+    <t>name_check</t>
+  </si>
+  <si>
     <t>contact_info_schema.json</t>
   </si>
   <si>
@@ -168,6 +171,9 @@
   </si>
   <si>
     <t>contact_info_20240702.csv</t>
+  </si>
+  <si>
+    <t>CIFF_8</t>
   </si>
 </sst>
 </file>
@@ -768,10 +774,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -870,7 +876,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -882,16 +888,16 @@
         <v>20</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>20</v>
@@ -935,7 +941,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -947,16 +953,16 @@
         <v>20</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>20</v>
@@ -1000,7 +1006,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -1012,16 +1018,16 @@
         <v>20</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>20</v>
@@ -1065,7 +1071,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -1077,16 +1083,16 @@
         <v>20</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>20</v>
@@ -1130,7 +1136,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -1142,16 +1148,16 @@
         <v>20</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>20</v>
@@ -1195,7 +1201,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
@@ -1207,16 +1213,16 @@
         <v>20</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>20</v>
@@ -1260,7 +1266,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
@@ -1272,16 +1278,16 @@
         <v>20</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="K8" s="22" t="s">
         <v>20</v>
@@ -1318,13 +1324,27 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="19"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="22"/>
+      <c r="A9" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H9" s="23"/>
       <c r="I9" s="3"/>
       <c r="J9" s="24"/>
@@ -1795,10 +1815,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q33" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 D9" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D8 D10:D1048576" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A736D6D3-E056-442B-8A93-B37F82E798F4}">

--- a/config/Master_Test_Template_project1.xlsx
+++ b/config/Master_Test_Template_project1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\april_automation_framework\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9285DBA9-ECD5-46AD-BF8A-6FEA8690AEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29CA530-747B-47C9-BA45-9B9B107A2822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="52">
   <si>
     <t>csv</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>CIFF_8</t>
+  </si>
+  <si>
+    <t>contact_info_r2b_transformation.sql</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -774,10 +780,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -822,7 +828,7 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -887,7 +893,7 @@
       <c r="F2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="23" t="s">
@@ -914,7 +920,7 @@
       <c r="O2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="32" t="s">
         <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -952,7 +958,7 @@
       <c r="F3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="23" t="s">
@@ -1017,7 +1023,7 @@
       <c r="F4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="30" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="23" t="s">
@@ -1082,7 +1088,7 @@
       <c r="F5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>45</v>
       </c>
       <c r="H5" s="23" t="s">
@@ -1147,7 +1153,7 @@
       <c r="F6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="23" t="s">
@@ -1212,7 +1218,7 @@
       <c r="F7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>45</v>
       </c>
       <c r="H7" s="23" t="s">
@@ -1277,7 +1283,7 @@
       <c r="F8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>45</v>
       </c>
       <c r="H8" s="23" t="s">
@@ -1324,7 +1330,7 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1340,21 +1346,53 @@
         <v>46</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="1"/>
+      <c r="H9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="19"/>
@@ -1362,7 +1400,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="31"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="22"/>
       <c r="H10" s="23"/>
       <c r="I10" s="3"/>
@@ -1381,7 +1419,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="31"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="22"/>
       <c r="H11" s="23"/>
       <c r="I11" s="3"/>
@@ -1400,7 +1438,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="31"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
       <c r="I12" s="3"/>
@@ -1419,7 +1457,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="31"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23"/>
       <c r="I13" s="3"/>
@@ -1438,7 +1476,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="31"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
       <c r="I14" s="3"/>
@@ -1457,7 +1495,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="31"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="22"/>
       <c r="H15" s="23"/>
       <c r="I15" s="3"/>
@@ -1476,7 +1514,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="31"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="22"/>
       <c r="H16" s="23"/>
       <c r="I16" s="3"/>
@@ -1495,7 +1533,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="31"/>
+      <c r="F17" s="30"/>
       <c r="G17" s="22"/>
       <c r="H17" s="23"/>
       <c r="I17" s="3"/>
@@ -1514,7 +1552,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="31"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="22"/>
       <c r="H18" s="23"/>
       <c r="I18" s="3"/>
@@ -1533,7 +1571,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="31"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
       <c r="I19" s="3"/>
@@ -1552,7 +1590,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="31"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
       <c r="I20" s="3"/>
@@ -1571,7 +1609,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="31"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
       <c r="I21" s="3"/>
@@ -1590,7 +1628,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="31"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="22"/>
       <c r="H22" s="23"/>
       <c r="I22" s="3"/>
@@ -1609,7 +1647,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="31"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="22"/>
       <c r="H23" s="23"/>
       <c r="I23" s="3"/>
@@ -1629,7 +1667,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="31"/>
+      <c r="F24" s="30"/>
       <c r="G24" s="22"/>
       <c r="H24" s="23"/>
       <c r="I24" s="3"/>
@@ -1649,7 +1687,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="31"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="22"/>
       <c r="H25" s="23"/>
       <c r="I25" s="3"/>
@@ -1677,13 +1715,13 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="32"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="31"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="23"/>
       <c r="I27" s="3"/>
       <c r="J27" s="24"/>
@@ -1696,13 +1734,13 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="32"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="31"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="23"/>
       <c r="I28" s="3"/>
       <c r="J28" s="24"/>
@@ -1715,13 +1753,13 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="32"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="21"/>
-      <c r="G29" s="31"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="23"/>
       <c r="I29" s="3"/>
       <c r="J29" s="24"/>
@@ -1734,13 +1772,13 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="32"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="31"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="23"/>
       <c r="I30" s="3"/>
       <c r="J30" s="24"/>
@@ -1753,13 +1791,13 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="32"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="31"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="23"/>
       <c r="I31" s="3"/>
       <c r="J31" s="24"/>
@@ -1772,13 +1810,13 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="32"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="31"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="23"/>
       <c r="I32" s="3"/>
       <c r="J32" s="24"/>
@@ -1791,13 +1829,13 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="32"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="31"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="23"/>
       <c r="I33" s="3"/>
       <c r="J33" s="24"/>

--- a/config/Master_Test_Template_project1.xlsx
+++ b/config/Master_Test_Template_project1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\april_automation_framework\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29CA530-747B-47C9-BA45-9B9B107A2822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA67BE47-54AA-41CD-8423-6E8EFA3916A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="83">
   <si>
     <t>csv</t>
   </si>
@@ -173,60 +173,118 @@
     <t>contact_info_20240702.csv</t>
   </si>
   <si>
-    <t>CIFF_8</t>
-  </si>
-  <si>
     <t>contact_info_r2b_transformation.sql</t>
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>contact_info_bronze</t>
+  </si>
+  <si>
+    <t>CIRB_1</t>
+  </si>
+  <si>
+    <t>CIRB_2</t>
+  </si>
+  <si>
+    <t>CIRB_3</t>
+  </si>
+  <si>
+    <t>CIRB_4</t>
+  </si>
+  <si>
+    <t>CIRB_5</t>
+  </si>
+  <si>
+    <t>CIRB_6</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>CIRB_7</t>
+  </si>
+  <si>
+    <t>CIRB_8</t>
+  </si>
+  <si>
+    <t>CIBS_1</t>
+  </si>
+  <si>
+    <t>contact_info_b2s_transformation.sql</t>
+  </si>
+  <si>
+    <t>contact_info_silver</t>
+  </si>
+  <si>
+    <t>IDENTIFIER,CURRENT_IND</t>
+  </si>
+  <si>
+    <t>CIBS_2</t>
+  </si>
+  <si>
+    <t>CIBS_3</t>
+  </si>
+  <si>
+    <t>CIBS_4</t>
+  </si>
+  <si>
+    <t>CIBS_5</t>
+  </si>
+  <si>
+    <t>CIBS_6</t>
+  </si>
+  <si>
+    <t>CIBS_7</t>
+  </si>
+  <si>
+    <t>CIBS_8</t>
+  </si>
+  <si>
+    <t>column_range_check</t>
+  </si>
+  <si>
+    <t>column_value_reference_check</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>CIBS_9</t>
+  </si>
+  <si>
+    <t>CIBS_10</t>
+  </si>
+  <si>
+    <t>CIBS_11</t>
+  </si>
+  <si>
+    <t>CIBS_12</t>
+  </si>
+  <si>
+    <t>birthmonth</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>AP,KA,MH,KL,TN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,12 +430,6 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -401,47 +453,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -453,39 +484,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -500,6 +528,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -777,13 +811,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -806,7 +840,8 @@
     <col min="16" max="16" width="15.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.6640625" style="2"/>
+    <col min="20" max="21" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -828,7 +863,7 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="21" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -890,22 +925,22 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="19" t="s">
         <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="22" t="s">
+      <c r="J2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -920,7 +955,7 @@
       <c r="O2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="23" t="s">
         <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -955,22 +990,22 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="19" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="22" t="s">
+      <c r="J3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -1020,22 +1055,22 @@
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="30" t="s">
+      <c r="F4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="19" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="22" t="s">
+      <c r="J4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -1085,22 +1120,22 @@
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="30" t="s">
+      <c r="F5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="19" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="22" t="s">
+      <c r="J5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -1150,22 +1185,22 @@
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="19" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="22" t="s">
+      <c r="J6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -1215,22 +1250,22 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="30" t="s">
+      <c r="F7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="19" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="22" t="s">
+      <c r="J7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>20</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -1280,22 +1315,22 @@
       <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="19" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="22" t="s">
+      <c r="J8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -1330,37 +1365,37 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>31</v>
+      <c r="H9" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="33" t="s">
+      <c r="J9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="24" t="s">
         <v>20</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -1375,395 +1410,1272 @@
       <c r="O9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="25" t="s">
         <v>21</v>
       </c>
       <c r="Q9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="19"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="1"/>
+      <c r="I10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="19"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="1"/>
+      <c r="A11" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="19"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="1"/>
+      <c r="A12" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="19"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="1"/>
+      <c r="A13" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="19"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="1"/>
+      <c r="A14" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="19"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="1"/>
+      <c r="A15" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="20"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="20"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="20"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="20"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="20"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="20"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="20"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="20"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="16"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="20"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="17"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="20"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="1"/>
-      <c r="S25" s="18"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="B26" s="27"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="28"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="31"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="31"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="31"/>
+      <c r="A16" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" s="2">
+        <v>1</v>
+      </c>
+      <c r="U26" s="2">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N27" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="2">
+        <v>19240101</v>
+      </c>
+      <c r="U27" s="2">
+        <v>20240101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N28" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="22"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="23"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="22"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="18"/>
       <c r="L29" s="3"/>
       <c r="M29" s="9"/>
       <c r="N29" s="10"/>
@@ -1771,18 +2683,18 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="31"/>
+    <row r="30" spans="1:21">
+      <c r="A30" s="22"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="23"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="22"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="18"/>
       <c r="L30" s="3"/>
       <c r="M30" s="9"/>
       <c r="N30" s="10"/>
@@ -1790,18 +2702,18 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="31"/>
+    <row r="31" spans="1:21">
+      <c r="A31" s="22"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="23"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="22"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="18"/>
       <c r="L31" s="3"/>
       <c r="M31" s="9"/>
       <c r="N31" s="10"/>
@@ -1809,18 +2721,18 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="31"/>
+    <row r="32" spans="1:21">
+      <c r="A32" s="22"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="23"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="22"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="3"/>
       <c r="M32" s="9"/>
       <c r="N32" s="10"/>
@@ -1829,17 +2741,17 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="31"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="23"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="19"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="22"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="18"/>
       <c r="L33" s="3"/>
       <c r="M33" s="9"/>
       <c r="N33" s="10"/>
@@ -1847,16 +2759,35 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="1"/>
     </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="22"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="1"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q33" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q34" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 D9" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D16 I1:I1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D8 D10:D1048576" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D8 D17:D1048576" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A736D6D3-E056-442B-8A93-B37F82E798F4}">

--- a/config/Master_Test_Template_project1.xlsx
+++ b/config/Master_Test_Template_project1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\april_automation_framework\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA67BE47-54AA-41CD-8423-6E8EFA3916A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF83AE3-0E71-4D75-9741-3A83218A45D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="84">
   <si>
     <t>csv</t>
   </si>
@@ -119,9 +119,6 @@
     <t>target_schema_path</t>
   </si>
   <si>
-    <t>contact_info_raw</t>
-  </si>
-  <si>
     <t>count_check</t>
   </si>
   <si>
@@ -273,13 +270,19 @@
   </si>
   <si>
     <t>AP,KA,MH,KL,TN</t>
+  </si>
+  <si>
+    <t>ETL_AUTO.CONTACT_INFO.CONTACT_INFO_RAW</t>
+  </si>
+  <si>
+    <t>ETL_AUTO.CONTACT_INFO.CONTACT_INFO_BRONZE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +433,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -453,7 +462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -535,6 +544,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,10 +826,10 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -917,7 +929,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -929,16 +941,16 @@
         <v>20</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>20</v>
@@ -976,13 +988,13 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -994,16 +1006,16 @@
         <v>20</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>20</v>
@@ -1041,13 +1053,13 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -1059,16 +1071,16 @@
         <v>20</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>20</v>
@@ -1106,13 +1118,13 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -1124,16 +1136,16 @@
         <v>20</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>20</v>
@@ -1171,13 +1183,13 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -1189,16 +1201,16 @@
         <v>20</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6" s="18" t="s">
         <v>20</v>
@@ -1236,13 +1248,13 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
@@ -1254,16 +1266,16 @@
         <v>20</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>20</v>
@@ -1301,13 +1313,13 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
@@ -1319,16 +1331,16 @@
         <v>20</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>20</v>
@@ -1366,34 +1378,34 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>31</v>
+      <c r="C9" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>20</v>
@@ -1414,7 +1426,7 @@
         <v>21</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>27</v>
@@ -1431,34 +1443,34 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="19" t="s">
         <v>31</v>
       </c>
+      <c r="C10" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>20</v>
@@ -1479,7 +1491,7 @@
         <v>21</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>27</v>
@@ -1496,34 +1508,34 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11" s="24" t="s">
         <v>20</v>
@@ -1544,7 +1556,7 @@
         <v>21</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>27</v>
@@ -1561,34 +1573,34 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>20</v>
@@ -1609,7 +1621,7 @@
         <v>21</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>27</v>
@@ -1626,34 +1638,34 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" s="24" t="s">
         <v>20</v>
@@ -1674,7 +1686,7 @@
         <v>21</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>27</v>
@@ -1691,34 +1703,34 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" s="24" t="s">
         <v>20</v>
@@ -1739,7 +1751,7 @@
         <v>21</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>27</v>
@@ -1756,34 +1768,34 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>20</v>
@@ -1804,7 +1816,7 @@
         <v>21</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>27</v>
@@ -1821,34 +1833,34 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" s="24" t="s">
         <v>20</v>
@@ -1869,7 +1881,7 @@
         <v>21</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>27</v>
@@ -1886,43 +1898,43 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="19" t="s">
+      <c r="I17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="N17" s="26" t="s">
         <v>17</v>
@@ -1934,7 +1946,7 @@
         <v>21</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>27</v>
@@ -1951,43 +1963,43 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="19" t="s">
+      <c r="I18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="N18" s="26" t="s">
         <v>17</v>
@@ -1999,7 +2011,7 @@
         <v>21</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>27</v>
@@ -2016,43 +2028,43 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="19" t="s">
+      <c r="I19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="N19" s="26" t="s">
         <v>17</v>
@@ -2064,7 +2076,7 @@
         <v>21</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>27</v>
@@ -2081,43 +2093,43 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="19" t="s">
+      <c r="I20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="N20" s="26" t="s">
         <v>17</v>
@@ -2129,7 +2141,7 @@
         <v>21</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>27</v>
@@ -2146,43 +2158,43 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="19" t="s">
+      <c r="I21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="N21" s="26" t="s">
         <v>17</v>
@@ -2194,7 +2206,7 @@
         <v>21</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>27</v>
@@ -2211,43 +2223,43 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="19" t="s">
+      <c r="I22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="N22" s="26" t="s">
         <v>17</v>
@@ -2259,7 +2271,7 @@
         <v>21</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>27</v>
@@ -2276,43 +2288,43 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="19" t="s">
+      <c r="I23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="N23" s="26" t="s">
         <v>17</v>
@@ -2324,7 +2336,7 @@
         <v>21</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>27</v>
@@ -2341,43 +2353,43 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="19" t="s">
+      <c r="I24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="N24" s="26" t="s">
         <v>17</v>
@@ -2389,7 +2401,7 @@
         <v>21</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>27</v>
@@ -2406,43 +2418,43 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="19" t="s">
+      <c r="I25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="N25" s="26" t="s">
         <v>17</v>
@@ -2454,10 +2466,10 @@
         <v>21</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>27</v>
@@ -2471,43 +2483,43 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="19" t="s">
+      <c r="I26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="N26" s="26" t="s">
         <v>17</v>
@@ -2519,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>27</v>
@@ -2536,43 +2548,43 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="19" t="s">
+      <c r="I27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="N27" s="26" t="s">
         <v>17</v>
@@ -2584,10 +2596,10 @@
         <v>21</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>27</v>
@@ -2601,43 +2613,43 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="19" t="s">
+      <c r="I28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="N28" s="26" t="s">
         <v>17</v>
@@ -2649,13 +2661,13 @@
         <v>21</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S28" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
@@ -2795,7 +2807,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config/Master_Test_Template_project1.xlsx
+++ b/config/Master_Test_Template_project1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\april_automation_framework\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF83AE3-0E71-4D75-9741-3A83218A45D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186870F-9BDF-4F13-AB06-72B0853C248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,9 +167,6 @@
     <t>snowflake</t>
   </si>
   <si>
-    <t>contact_info_20240702.csv</t>
-  </si>
-  <si>
     <t>contact_info_r2b_transformation.sql</t>
   </si>
   <si>
@@ -276,6 +273,9 @@
   </si>
   <si>
     <t>ETL_AUTO.CONTACT_INFO.CONTACT_INFO_BRONZE</t>
+  </si>
+  <si>
+    <t>contact_info_20240709.csv</t>
   </si>
 </sst>
 </file>
@@ -826,10 +826,10 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -929,7 +929,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>44</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>46</v>
@@ -994,7 +994,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>44</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>46</v>
@@ -1059,7 +1059,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>44</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>46</v>
@@ -1124,7 +1124,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>44</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>46</v>
@@ -1189,7 +1189,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>44</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>46</v>
@@ -1254,7 +1254,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>44</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>46</v>
@@ -1319,7 +1319,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>44</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>46</v>
@@ -1378,28 +1378,28 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>46</v>
@@ -1443,28 +1443,28 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>46</v>
@@ -1508,28 +1508,28 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>46</v>
@@ -1573,28 +1573,28 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>46</v>
@@ -1638,28 +1638,28 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>46</v>
@@ -1703,28 +1703,28 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>46</v>
@@ -1768,28 +1768,28 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>46</v>
@@ -1833,28 +1833,28 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>46</v>
@@ -1898,13 +1898,13 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>46</v>
@@ -1913,28 +1913,28 @@
         <v>45</v>
       </c>
       <c r="F17" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="19" t="s">
+      <c r="I17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="N17" s="26" t="s">
         <v>17</v>
@@ -1946,7 +1946,7 @@
         <v>21</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>27</v>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>46</v>
@@ -1978,28 +1978,28 @@
         <v>45</v>
       </c>
       <c r="F18" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="19" t="s">
+      <c r="I18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="N18" s="26" t="s">
         <v>17</v>
@@ -2011,7 +2011,7 @@
         <v>21</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>27</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>46</v>
@@ -2043,28 +2043,28 @@
         <v>45</v>
       </c>
       <c r="F19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="19" t="s">
+      <c r="I19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="N19" s="26" t="s">
         <v>17</v>
@@ -2076,7 +2076,7 @@
         <v>21</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>27</v>
@@ -2093,13 +2093,13 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>46</v>
@@ -2108,28 +2108,28 @@
         <v>45</v>
       </c>
       <c r="F20" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="19" t="s">
+      <c r="I20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="N20" s="26" t="s">
         <v>17</v>
@@ -2141,7 +2141,7 @@
         <v>21</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>27</v>
@@ -2158,13 +2158,13 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>46</v>
@@ -2173,28 +2173,28 @@
         <v>45</v>
       </c>
       <c r="F21" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="19" t="s">
+      <c r="I21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="N21" s="26" t="s">
         <v>17</v>
@@ -2206,7 +2206,7 @@
         <v>21</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>27</v>
@@ -2223,13 +2223,13 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>46</v>
@@ -2238,28 +2238,28 @@
         <v>45</v>
       </c>
       <c r="F22" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="19" t="s">
+      <c r="I22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="N22" s="26" t="s">
         <v>17</v>
@@ -2271,7 +2271,7 @@
         <v>21</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>27</v>
@@ -2288,13 +2288,13 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>46</v>
@@ -2303,28 +2303,28 @@
         <v>45</v>
       </c>
       <c r="F23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="19" t="s">
+      <c r="I23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="N23" s="26" t="s">
         <v>17</v>
@@ -2336,7 +2336,7 @@
         <v>21</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>27</v>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>46</v>
@@ -2368,28 +2368,28 @@
         <v>45</v>
       </c>
       <c r="F24" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="19" t="s">
+      <c r="I24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="N24" s="26" t="s">
         <v>17</v>
@@ -2401,7 +2401,7 @@
         <v>21</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>27</v>
@@ -2418,13 +2418,13 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>46</v>
@@ -2433,28 +2433,28 @@
         <v>45</v>
       </c>
       <c r="F25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="19" t="s">
+      <c r="I25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="N25" s="26" t="s">
         <v>17</v>
@@ -2466,10 +2466,10 @@
         <v>21</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>27</v>
@@ -2483,13 +2483,13 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>46</v>
@@ -2498,28 +2498,28 @@
         <v>45</v>
       </c>
       <c r="F26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="19" t="s">
+      <c r="I26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="N26" s="26" t="s">
         <v>17</v>
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>27</v>
@@ -2548,13 +2548,13 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>46</v>
@@ -2563,28 +2563,28 @@
         <v>45</v>
       </c>
       <c r="F27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="19" t="s">
+      <c r="I27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="N27" s="26" t="s">
         <v>17</v>
@@ -2596,10 +2596,10 @@
         <v>21</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>27</v>
@@ -2613,13 +2613,13 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>46</v>
@@ -2628,28 +2628,28 @@
         <v>45</v>
       </c>
       <c r="F28" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="19" t="s">
+      <c r="I28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="N28" s="26" t="s">
         <v>17</v>
@@ -2661,13 +2661,13 @@
         <v>21</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S28" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>

--- a/config/Master_Test_Template_project1.xlsx
+++ b/config/Master_Test_Template_project1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\april_automation_framework\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186870F-9BDF-4F13-AB06-72B0853C248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E204E9-4F7B-4684-9FC6-1C7F7700B91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="85">
   <si>
     <t>csv</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>contact_info_20240709.csv</t>
+  </si>
+  <si>
+    <t>contact_info, transaction</t>
   </si>
 </sst>
 </file>
@@ -826,10 +829,10 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -2679,7 +2682,9 @@
     <row r="29" spans="1:21">
       <c r="A29" s="22"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="17"/>
@@ -2716,7 +2721,9 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="22"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>

--- a/config/Master_Test_Template_project1.xlsx
+++ b/config/Master_Test_Template_project1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\april_automation_framework\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E204E9-4F7B-4684-9FC6-1C7F7700B91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0F08A4-B09E-4CF8-807B-C054D0C05A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,16 +269,16 @@
     <t>AP,KA,MH,KL,TN</t>
   </si>
   <si>
-    <t>ETL_AUTO.CONTACT_INFO.CONTACT_INFO_RAW</t>
-  </si>
-  <si>
-    <t>ETL_AUTO.CONTACT_INFO.CONTACT_INFO_BRONZE</t>
-  </si>
-  <si>
-    <t>contact_info_20240709.csv</t>
-  </si>
-  <si>
     <t>contact_info, transaction</t>
+  </si>
+  <si>
+    <t>SAMPLEDB.CONTACT_INFO.CONTACT_INFO_RAW</t>
+  </si>
+  <si>
+    <t>SAMPLEDB.CONTACT_INFO.CONTACT_INFO_BRONZE</t>
+  </si>
+  <si>
+    <t>contact_info_20240913.csv</t>
   </si>
 </sst>
 </file>
@@ -829,10 +829,10 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -932,7 +932,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>44</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>46</v>
@@ -997,7 +997,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>44</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>46</v>
@@ -1062,7 +1062,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>44</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>46</v>
@@ -1127,7 +1127,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>44</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>46</v>
@@ -1192,7 +1192,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>44</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>46</v>
@@ -1257,7 +1257,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>44</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>46</v>
@@ -1322,7 +1322,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>44</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>46</v>
@@ -1387,7 +1387,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>46</v>
@@ -1402,7 +1402,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>46</v>
@@ -1452,7 +1452,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>46</v>
@@ -1467,7 +1467,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>46</v>
@@ -1517,7 +1517,7 @@
         <v>56</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
@@ -1532,7 +1532,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>46</v>
@@ -1582,7 +1582,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
@@ -1597,7 +1597,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>46</v>
@@ -1647,7 +1647,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>46</v>
@@ -1662,7 +1662,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>46</v>
@@ -1712,7 +1712,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>46</v>
@@ -1727,7 +1727,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>46</v>
@@ -1777,7 +1777,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>46</v>
@@ -1792,7 +1792,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>46</v>
@@ -1842,7 +1842,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>46</v>
@@ -1857,7 +1857,7 @@
         <v>20</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>46</v>
@@ -2683,7 +2683,7 @@
       <c r="A29" s="22"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
